--- a/SchedulingData/dynamic15/pso/scheduling1_16.xlsx
+++ b/SchedulingData/dynamic15/pso/scheduling1_16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,55 +466,55 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>68.95999999999999</v>
+        <v>52.22</v>
       </c>
       <c r="E2" t="n">
-        <v>26.744</v>
+        <v>25.968</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>68.95999999999999</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>144.46</v>
+        <v>53.64</v>
       </c>
       <c r="E3" t="n">
-        <v>21.824</v>
+        <v>27.296</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>144.46</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>197.92</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>19.088</v>
+        <v>27.008</v>
       </c>
     </row>
     <row r="5">
@@ -523,36 +523,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>58.62</v>
+        <v>112.76</v>
       </c>
       <c r="E5" t="n">
-        <v>26.808</v>
+        <v>23.004</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>197.92</v>
+        <v>112.76</v>
       </c>
       <c r="D6" t="n">
-        <v>263.32</v>
+        <v>159.82</v>
       </c>
       <c r="E6" t="n">
-        <v>14.168</v>
+        <v>20.408</v>
       </c>
     </row>
     <row r="7">
@@ -561,112 +561,112 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>62.78</v>
+        <v>49.28</v>
       </c>
       <c r="E7" t="n">
-        <v>26.412</v>
+        <v>26.752</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>58.62</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>128.92</v>
+        <v>55.78</v>
       </c>
       <c r="E8" t="n">
-        <v>22.888</v>
+        <v>26.592</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>128.92</v>
+        <v>53.64</v>
       </c>
       <c r="D9" t="n">
-        <v>190.02</v>
+        <v>104.8</v>
       </c>
       <c r="E9" t="n">
-        <v>20.368</v>
+        <v>23.32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>190.02</v>
+        <v>49.28</v>
       </c>
       <c r="D10" t="n">
-        <v>253.76</v>
+        <v>115.7</v>
       </c>
       <c r="E10" t="n">
-        <v>17.104</v>
+        <v>23.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>62.78</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>124.66</v>
+        <v>56.2</v>
       </c>
       <c r="E11" t="n">
-        <v>22.824</v>
+        <v>25.08</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>104.8</v>
       </c>
       <c r="D12" t="n">
-        <v>53.2</v>
+        <v>162.6</v>
       </c>
       <c r="E12" t="n">
-        <v>26.36</v>
+        <v>19.66</v>
       </c>
     </row>
     <row r="13">
@@ -675,36 +675,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>53.2</v>
+        <v>56.2</v>
       </c>
       <c r="D13" t="n">
-        <v>102.48</v>
+        <v>120.12</v>
       </c>
       <c r="E13" t="n">
-        <v>23.552</v>
+        <v>21.288</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>102.48</v>
+        <v>55.78</v>
       </c>
       <c r="D14" t="n">
-        <v>183.28</v>
+        <v>119.38</v>
       </c>
       <c r="E14" t="n">
-        <v>18.572</v>
+        <v>23.352</v>
       </c>
     </row>
     <row r="15">
@@ -713,131 +713,131 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>253.76</v>
+        <v>159.82</v>
       </c>
       <c r="D15" t="n">
-        <v>305.22</v>
+        <v>208.48</v>
       </c>
       <c r="E15" t="n">
-        <v>14.088</v>
+        <v>17.672</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>263.32</v>
+        <v>208.48</v>
       </c>
       <c r="D16" t="n">
-        <v>330.6</v>
+        <v>292.04</v>
       </c>
       <c r="E16" t="n">
-        <v>10.06</v>
+        <v>14.416</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>52.22</v>
       </c>
       <c r="D17" t="n">
-        <v>76.36</v>
+        <v>109.6</v>
       </c>
       <c r="E17" t="n">
-        <v>26.024</v>
+        <v>21.86</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>305.22</v>
+        <v>115.7</v>
       </c>
       <c r="D18" t="n">
-        <v>349.98</v>
+        <v>194.36</v>
       </c>
       <c r="E18" t="n">
-        <v>11.232</v>
+        <v>19.944</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>330.6</v>
+        <v>292.04</v>
       </c>
       <c r="D19" t="n">
-        <v>387.22</v>
+        <v>371.96</v>
       </c>
       <c r="E19" t="n">
-        <v>6.028</v>
+        <v>11.504</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>349.98</v>
+        <v>120.12</v>
       </c>
       <c r="D20" t="n">
-        <v>419.04</v>
+        <v>175.52</v>
       </c>
       <c r="E20" t="n">
-        <v>7.956</v>
+        <v>17.368</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>124.66</v>
+        <v>119.38</v>
       </c>
       <c r="D21" t="n">
-        <v>206.8</v>
+        <v>193.46</v>
       </c>
       <c r="E21" t="n">
-        <v>19.7</v>
+        <v>19.544</v>
       </c>
     </row>
     <row r="22">
@@ -846,55 +846,55 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>183.28</v>
+        <v>175.52</v>
       </c>
       <c r="D22" t="n">
-        <v>237.24</v>
+        <v>266.84</v>
       </c>
       <c r="E22" t="n">
-        <v>15.316</v>
+        <v>13.336</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>206.8</v>
+        <v>162.6</v>
       </c>
       <c r="D23" t="n">
-        <v>270.72</v>
+        <v>224.5</v>
       </c>
       <c r="E23" t="n">
-        <v>15.908</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>109.6</v>
       </c>
       <c r="D24" t="n">
-        <v>59.3</v>
+        <v>175.9</v>
       </c>
       <c r="E24" t="n">
-        <v>26.76</v>
+        <v>18.34</v>
       </c>
     </row>
     <row r="25">
@@ -903,131 +903,131 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>270.72</v>
+        <v>194.36</v>
       </c>
       <c r="D25" t="n">
-        <v>313.6</v>
+        <v>272.62</v>
       </c>
       <c r="E25" t="n">
-        <v>12.26</v>
+        <v>16.248</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>237.24</v>
+        <v>272.62</v>
       </c>
       <c r="D26" t="n">
-        <v>279.74</v>
+        <v>327.8</v>
       </c>
       <c r="E26" t="n">
-        <v>12.196</v>
+        <v>12.86</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>76.36</v>
+        <v>175.9</v>
       </c>
       <c r="D27" t="n">
-        <v>137.18</v>
+        <v>231.5</v>
       </c>
       <c r="E27" t="n">
-        <v>22.072</v>
+        <v>13.42</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>313.6</v>
+        <v>231.5</v>
       </c>
       <c r="D28" t="n">
-        <v>355.86</v>
+        <v>299.5</v>
       </c>
       <c r="E28" t="n">
-        <v>9.664</v>
+        <v>8.74</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>137.18</v>
+        <v>299.5</v>
       </c>
       <c r="D29" t="n">
-        <v>188.8</v>
+        <v>354.98</v>
       </c>
       <c r="E29" t="n">
-        <v>18.04</v>
+        <v>5.792</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>279.74</v>
+        <v>193.46</v>
       </c>
       <c r="D30" t="n">
-        <v>340.22</v>
+        <v>252.4</v>
       </c>
       <c r="E30" t="n">
-        <v>9.247999999999999</v>
+        <v>16.28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>340.22</v>
+        <v>224.5</v>
       </c>
       <c r="D31" t="n">
-        <v>412.12</v>
+        <v>282.2</v>
       </c>
       <c r="E31" t="n">
-        <v>6.128</v>
+        <v>11.46</v>
       </c>
     </row>
     <row r="32">
@@ -1036,36 +1036,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>419.04</v>
+        <v>371.96</v>
       </c>
       <c r="D32" t="n">
-        <v>463.84</v>
+        <v>423.22</v>
       </c>
       <c r="E32" t="n">
-        <v>5.096</v>
+        <v>8.488</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>59.3</v>
+        <v>266.84</v>
       </c>
       <c r="D33" t="n">
-        <v>125.5</v>
+        <v>319.24</v>
       </c>
       <c r="E33" t="n">
-        <v>23.24</v>
+        <v>10.216</v>
       </c>
     </row>
     <row r="34">
@@ -1074,207 +1074,207 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>188.8</v>
+        <v>282.2</v>
       </c>
       <c r="D34" t="n">
-        <v>262.84</v>
+        <v>334.88</v>
       </c>
       <c r="E34" t="n">
-        <v>14.736</v>
+        <v>7.812</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>463.84</v>
+        <v>319.24</v>
       </c>
       <c r="D35" t="n">
-        <v>552.8200000000001</v>
+        <v>389.86</v>
       </c>
       <c r="E35" t="n">
-        <v>1.288</v>
+        <v>6.264</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>552.8200000000001</v>
+        <v>354.98</v>
       </c>
       <c r="D36" t="n">
-        <v>646.74</v>
+        <v>411.58</v>
       </c>
       <c r="E36" t="n">
-        <v>30</v>
+        <v>3.712</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>125.5</v>
+        <v>423.22</v>
       </c>
       <c r="D37" t="n">
-        <v>177.5</v>
+        <v>475.82</v>
       </c>
       <c r="E37" t="n">
-        <v>20.16</v>
+        <v>5.368</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>177.5</v>
+        <v>327.8</v>
       </c>
       <c r="D38" t="n">
-        <v>243.72</v>
+        <v>372.9</v>
       </c>
       <c r="E38" t="n">
-        <v>17.168</v>
+        <v>9.48</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>387.22</v>
+        <v>252.4</v>
       </c>
       <c r="D39" t="n">
-        <v>455.12</v>
+        <v>299.58</v>
       </c>
       <c r="E39" t="n">
-        <v>2.368</v>
+        <v>12.692</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>243.72</v>
+        <v>389.86</v>
       </c>
       <c r="D40" t="n">
-        <v>311.62</v>
+        <v>433.42</v>
       </c>
       <c r="E40" t="n">
-        <v>12.488</v>
+        <v>3.528</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>412.12</v>
+        <v>372.9</v>
       </c>
       <c r="D41" t="n">
-        <v>484.02</v>
+        <v>442.3</v>
       </c>
       <c r="E41" t="n">
-        <v>1.568</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>484.02</v>
+        <v>442.3</v>
       </c>
       <c r="D42" t="n">
-        <v>562.78</v>
+        <v>536.8</v>
       </c>
       <c r="E42" t="n">
-        <v>30</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>262.84</v>
+        <v>536.8</v>
       </c>
       <c r="D43" t="n">
-        <v>309.66</v>
+        <v>606.2</v>
       </c>
       <c r="E43" t="n">
-        <v>11.184</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>455.12</v>
+        <v>334.88</v>
       </c>
       <c r="D44" t="n">
-        <v>527.1799999999999</v>
+        <v>398.96</v>
       </c>
       <c r="E44" t="n">
-        <v>30</v>
+        <v>5.004</v>
       </c>
     </row>
     <row r="45">
@@ -1283,207 +1283,207 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>527.1799999999999</v>
+        <v>411.58</v>
       </c>
       <c r="D45" t="n">
-        <v>586.46</v>
+        <v>458.86</v>
       </c>
       <c r="E45" t="n">
-        <v>26.752</v>
+        <v>0.124</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>355.86</v>
+        <v>458.86</v>
       </c>
       <c r="D46" t="n">
-        <v>392.86</v>
+        <v>530.51</v>
       </c>
       <c r="E46" t="n">
-        <v>7.584</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>309.66</v>
+        <v>433.42</v>
       </c>
       <c r="D47" t="n">
-        <v>384.06</v>
+        <v>505.42</v>
       </c>
       <c r="E47" t="n">
-        <v>6.384</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>586.46</v>
+        <v>505.42</v>
       </c>
       <c r="D48" t="n">
-        <v>644.52</v>
+        <v>615.8200000000001</v>
       </c>
       <c r="E48" t="n">
-        <v>23.056</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>392.86</v>
+        <v>299.58</v>
       </c>
       <c r="D49" t="n">
-        <v>442.96</v>
+        <v>352.7</v>
       </c>
       <c r="E49" t="n">
-        <v>4.204</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>562.78</v>
+        <v>352.7</v>
       </c>
       <c r="D50" t="n">
-        <v>644.22</v>
+        <v>390.5</v>
       </c>
       <c r="E50" t="n">
-        <v>25.996</v>
+        <v>7.34</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>644.52</v>
+        <v>475.82</v>
       </c>
       <c r="D51" t="n">
-        <v>707.86</v>
+        <v>519.88</v>
       </c>
       <c r="E51" t="n">
-        <v>20.352</v>
+        <v>2.092</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>384.06</v>
+        <v>519.88</v>
       </c>
       <c r="D52" t="n">
-        <v>427.62</v>
+        <v>602.5</v>
       </c>
       <c r="E52" t="n">
-        <v>3.648</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>442.96</v>
+        <v>602.5</v>
       </c>
       <c r="D53" t="n">
-        <v>483.48</v>
+        <v>672.5</v>
       </c>
       <c r="E53" t="n">
-        <v>1.292</v>
+        <v>26.64</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>483.48</v>
+        <v>390.5</v>
       </c>
       <c r="D54" t="n">
-        <v>547.9</v>
+        <v>451.6</v>
       </c>
       <c r="E54" t="n">
-        <v>30</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>646.74</v>
+        <v>451.6</v>
       </c>
       <c r="D55" t="n">
-        <v>722.36</v>
+        <v>533.48</v>
       </c>
       <c r="E55" t="n">
-        <v>27.088</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56">
@@ -1492,55 +1492,55 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>311.62</v>
+        <v>533.48</v>
       </c>
       <c r="D56" t="n">
-        <v>371.6</v>
+        <v>607.92</v>
       </c>
       <c r="E56" t="n">
-        <v>9.1</v>
+        <v>26.696</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>427.62</v>
+        <v>530.51</v>
       </c>
       <c r="D57" t="n">
-        <v>460.62</v>
+        <v>601.13</v>
       </c>
       <c r="E57" t="n">
-        <v>1.488</v>
+        <v>27.088</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>460.62</v>
+        <v>615.8200000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>549.14</v>
+        <v>661.28</v>
       </c>
       <c r="E58" t="n">
-        <v>30</v>
+        <v>27.144</v>
       </c>
     </row>
     <row r="59">
@@ -1549,17 +1549,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>549.14</v>
+        <v>398.96</v>
       </c>
       <c r="D59" t="n">
-        <v>619.14</v>
+        <v>445.46</v>
       </c>
       <c r="E59" t="n">
-        <v>26.64</v>
+        <v>2.484</v>
       </c>
     </row>
     <row r="60">
@@ -1568,36 +1568,55 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>619.14</v>
+        <v>445.46</v>
       </c>
       <c r="D60" t="n">
-        <v>669.24</v>
+        <v>512.39</v>
       </c>
       <c r="E60" t="n">
-        <v>23.26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>371.6</v>
+        <v>512.39</v>
       </c>
       <c r="D61" t="n">
-        <v>436.78</v>
+        <v>560.63</v>
       </c>
       <c r="E61" t="n">
-        <v>5.692</v>
+        <v>26.876</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>2</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>pond16</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>601.13</v>
+      </c>
+      <c r="D62" t="n">
+        <v>660.63</v>
+      </c>
+      <c r="E62" t="n">
+        <v>24.228</v>
       </c>
     </row>
   </sheetData>
